--- a/demo/Results_rt/link/rt/Posthoc_1.xlsx
+++ b/demo/Results_rt/link/rt/Posthoc_1.xlsx
@@ -13,30 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="27">
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
+    <t>1</t>
   </si>
   <si>
     <t>A_1</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
     <t>A_2</t>
   </si>
   <si>
-    <t>a2</t>
+    <t>2</t>
   </si>
   <si>
     <t>emmCI_1</t>
@@ -154,7 +145,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="true"/>
+    <col min="1" max="1" width="2.28515625" customWidth="true"/>
     <col min="2" max="2" width="4.42578125" customWidth="true"/>
     <col min="3" max="3" width="4.42578125" customWidth="true"/>
     <col min="4" max="4" width="14.7109375" customWidth="true"/>
@@ -177,49 +168,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -227,31 +218,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0">
-        <v>0.011410636264216541</v>
+        <v>0.011410636265294037</v>
       </c>
       <c r="G2" s="0">
-        <v>0.022821272528433134</v>
+        <v>0.022821272530588077</v>
       </c>
       <c r="H2" s="0">
-        <v>78.954988106598876</v>
+        <v>78.954988106272481</v>
       </c>
       <c r="I2" s="0">
-        <v>28.211826818053677</v>
+        <v>28.211826817864409</v>
       </c>
       <c r="J2" s="0">
-        <v>6.4467131048331554</v>
+        <v>6.4467131046632655</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
@@ -260,48 +251,48 @@
         <v>512</v>
       </c>
       <c r="M2" s="0">
-        <v>0.22442135845660729</v>
+        <v>0.22442135845365022</v>
       </c>
       <c r="N2" s="0">
-        <v>0.012434668678340312</v>
+        <v>0.012434668678016699</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0">
-        <v>0.63372771830008467</v>
+        <v>0.63372771831152575</v>
       </c>
       <c r="G3" s="0">
-        <v>0.63372771830008467</v>
+        <v>0.63372771831152575</v>
       </c>
       <c r="H3" s="0">
-        <v>16.323634757316597</v>
+        <v>16.323634756858837</v>
       </c>
       <c r="I3" s="0">
-        <v>4.8406377042778344</v>
+        <v>4.8406377041461566</v>
       </c>
       <c r="J3" s="0">
-        <v>0.22731178746032957</v>
+        <v>0.22731178744500033</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
@@ -310,46 +301,46 @@
         <v>512</v>
       </c>
       <c r="M3" s="0">
-        <v>0.042141112224688908</v>
+        <v>0.042141112223267968</v>
       </c>
       <c r="N3" s="0">
-        <v>0.00044377131447190108</v>
+        <v>0.00044377131444198767</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00714611501334986</v>
+        <v>0.0071461150155063321</v>
       </c>
       <c r="G4" s="0">
-        <v>0.0214383450400496</v>
+        <v>0.021438345046518981</v>
       </c>
       <c r="H4" s="0">
-        <v>81.693707894521481</v>
+        <v>81.693707893617443</v>
       </c>
       <c r="I4" s="0">
-        <v>18.165142357814322</v>
+        <v>18.165142357574386</v>
       </c>
       <c r="J4" s="0">
-        <v>7.2944049206427035</v>
+        <v>7.2944049200926804</v>
       </c>
       <c r="K4" s="0">
         <v>1</v>
@@ -358,16 +349,16 @@
         <v>512</v>
       </c>
       <c r="M4" s="0">
-        <v>0.23872062843943989</v>
+        <v>0.23872062843043973</v>
       </c>
       <c r="N4" s="0">
-        <v>0.014046762013076988</v>
+        <v>0.014046762012032692</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/demo/Results_rt/link/rt/Posthoc_1.xlsx
+++ b/demo/Results_rt/link/rt/Posthoc_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="34" uniqueCount="27">
   <si>
     <t>B</t>
   </si>
@@ -21,37 +21,40 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>A_1</t>
   </si>
   <si>
     <t>A_2</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>emmCI_1</t>
   </si>
   <si>
-    <t>5.63 (5.48, 5.79)</t>
-  </si>
-  <si>
-    <t>5.82 (5.69, 5.95)</t>
-  </si>
-  <si>
-    <t>6.11 (5.95, 6.26)</t>
+    <t>307.19 (258.89, 364.50)</t>
+  </si>
+  <si>
+    <t>382.12 (329.90, 442.60)</t>
+  </si>
+  <si>
+    <t>504.60 (435.15, 585.13)</t>
   </si>
   <si>
     <t>emmCI_2</t>
   </si>
   <si>
-    <t>5.88 (5.73, 6.04)</t>
-  </si>
-  <si>
-    <t>5.87 (5.72, 6.02)</t>
-  </si>
-  <si>
-    <t>6.28 (6.14, 6.41)</t>
+    <t>372.68 (319.90, 434.17)</t>
+  </si>
+  <si>
+    <t>411.09 (348.09, 485.50)</t>
+  </si>
+  <si>
+    <t>589.27 (507.55, 684.14)</t>
   </si>
   <si>
     <t>p</t>
@@ -91,9 +94,6 @@
   </si>
   <si>
     <t>significance</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
@@ -148,10 +148,10 @@
     <col min="1" max="1" width="2.28515625" customWidth="true"/>
     <col min="2" max="2" width="4.42578125" customWidth="true"/>
     <col min="3" max="3" width="4.42578125" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="20.7109375" customWidth="true"/>
+    <col min="5" max="5" width="20.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
-    <col min="7" max="7" width="13.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
@@ -168,49 +168,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -221,145 +221,141 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>0.011410636265294037</v>
+        <v>0.073912573584364885</v>
       </c>
       <c r="G2" s="0">
-        <v>0.022821272530588077</v>
+        <v>0.14782514716872974</v>
       </c>
       <c r="H2" s="0">
-        <v>78.954988106272481</v>
+        <v>65.491799959587979</v>
       </c>
       <c r="I2" s="0">
-        <v>28.211826817864409</v>
+        <v>21.31965246306811</v>
       </c>
       <c r="J2" s="0">
-        <v>6.4467131046632655</v>
+        <v>3.2064991435561057</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
       </c>
       <c r="L2" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="M2" s="0">
-        <v>0.22442135845365022</v>
+        <v>0.15497974118074345</v>
       </c>
       <c r="N2" s="0">
-        <v>0.012434668678016699</v>
+        <v>0.0059688390752309986</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0">
-        <v>0.63372771831152575</v>
+        <v>0.49857522116586328</v>
       </c>
       <c r="G3" s="0">
-        <v>0.63372771831152575</v>
+        <v>0.49857522116586328</v>
       </c>
       <c r="H3" s="0">
-        <v>16.323634756858837</v>
+        <v>28.973613332331638</v>
       </c>
       <c r="I3" s="0">
-        <v>4.8406377041461566</v>
+        <v>7.5823627485951617</v>
       </c>
       <c r="J3" s="0">
-        <v>0.22731178744500033</v>
+        <v>0.45859366466703316</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
       </c>
       <c r="L3" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="M3" s="0">
-        <v>0.042141112223267968</v>
+        <v>0.058610225531315854</v>
       </c>
       <c r="N3" s="0">
-        <v>0.00044377131444198767</v>
+        <v>0.00085805274740285411</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0071461150155063321</v>
+        <v>0.02093957188187574</v>
       </c>
       <c r="G4" s="0">
-        <v>0.021438345046518981</v>
+        <v>0.062818715645627243</v>
       </c>
       <c r="H4" s="0">
-        <v>81.693707893617443</v>
+        <v>84.666783124030189</v>
       </c>
       <c r="I4" s="0">
-        <v>18.165142357574386</v>
+        <v>16.778959144732458</v>
       </c>
       <c r="J4" s="0">
-        <v>7.2944049200926804</v>
+        <v>5.3635623236671846</v>
       </c>
       <c r="K4" s="0">
         <v>1</v>
       </c>
       <c r="L4" s="0">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="M4" s="0">
-        <v>0.23872062843043973</v>
+        <v>0.20044075635083741</v>
       </c>
       <c r="N4" s="0">
-        <v>0.014046762012032692</v>
+        <v>0.0099442429899418358</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P4" s="0"/>
     </row>
   </sheetData>
 </worksheet>
